--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H2">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J2">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>641.5152562968021</v>
+        <v>0.1559764125413333</v>
       </c>
       <c r="R2">
-        <v>5773.637306671219</v>
+        <v>1.403787712872</v>
       </c>
       <c r="S2">
-        <v>0.1150040623877632</v>
+        <v>0.02456136429238192</v>
       </c>
       <c r="T2">
-        <v>0.1150040623877632</v>
+        <v>0.02456136429238192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.426422666666666</v>
+        <v>2.775841999999999</v>
       </c>
       <c r="H3">
-        <v>25.279268</v>
+        <v>8.327525999999999</v>
       </c>
       <c r="I3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="J3">
-        <v>0.1151758588783328</v>
+        <v>0.0624750527258915</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>0.7308882404537778</v>
+        <v>0.2407700581153333</v>
       </c>
       <c r="R3">
-        <v>6.577994164084</v>
+        <v>2.166930523038</v>
       </c>
       <c r="S3">
-        <v>0.0001310259046508785</v>
+        <v>0.03791368843350958</v>
       </c>
       <c r="T3">
-        <v>0.0001310259046508785</v>
+        <v>0.03791368843350958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.426422666666666</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H4">
-        <v>25.279268</v>
+        <v>35.361361</v>
       </c>
       <c r="I4">
-        <v>0.1151758588783328</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J4">
-        <v>0.1151758588783328</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.2274263389657777</v>
+        <v>0.6623261496102223</v>
       </c>
       <c r="R4">
-        <v>2.046837050692</v>
+        <v>5.960935346492001</v>
       </c>
       <c r="S4">
-        <v>4.077058591875495E-05</v>
+        <v>0.1042954737572031</v>
       </c>
       <c r="T4">
-        <v>4.077058591875495E-05</v>
+        <v>0.1042954737572031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="J5">
-        <v>0.1611112760180311</v>
+        <v>0.2652892219050753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>897.3698354287295</v>
+        <v>1.022387314432556</v>
       </c>
       <c r="R5">
-        <v>8076.328518858565</v>
+        <v>9.201485829893002</v>
       </c>
       <c r="S5">
-        <v>0.1608709621876795</v>
+        <v>0.1609937481478722</v>
       </c>
       <c r="T5">
-        <v>0.1608709621876795</v>
+        <v>0.1609937481478722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.78712033333333</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H6">
-        <v>35.361361</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I6">
-        <v>0.1611112760180311</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J6">
-        <v>0.1611112760180311</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08673766666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>0.260213</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.001137616041476965</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P6">
-        <v>0.001137616041476965</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q6">
-        <v>1.022387314432556</v>
+        <v>1.678316579983111</v>
       </c>
       <c r="R6">
-        <v>9.201485829893002</v>
+        <v>15.104849219848</v>
       </c>
       <c r="S6">
-        <v>0.0001832827720609353</v>
+        <v>0.2642819144720751</v>
       </c>
       <c r="T6">
-        <v>0.0001832827720609353</v>
+        <v>0.264281914472075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.78712033333333</v>
+        <v>29.86824466666667</v>
       </c>
       <c r="H7">
-        <v>35.361361</v>
+        <v>89.60473400000001</v>
       </c>
       <c r="I7">
-        <v>0.1611112760180311</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="J7">
-        <v>0.1611112760180311</v>
+        <v>0.6722357253690333</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.02698966666666667</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N7">
-        <v>0.080969</v>
+        <v>0.260213</v>
       </c>
       <c r="O7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P7">
-        <v>0.0003539855167203345</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q7">
-        <v>0.3181304487565556</v>
+        <v>2.590701849815778</v>
       </c>
       <c r="R7">
-        <v>2.863174038809</v>
+        <v>23.316316648342</v>
       </c>
       <c r="S7">
-        <v>5.703105829071518E-05</v>
+        <v>0.4079538108969584</v>
       </c>
       <c r="T7">
-        <v>5.703105829071518E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>52.94781866666667</v>
-      </c>
-      <c r="H8">
-        <v>158.843456</v>
-      </c>
-      <c r="I8">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="J8">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>76.13138833333333</v>
-      </c>
-      <c r="N8">
-        <v>228.394165</v>
-      </c>
-      <c r="O8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="P8">
-        <v>0.9985083984418027</v>
-      </c>
-      <c r="Q8">
-        <v>4030.990944314916</v>
-      </c>
-      <c r="R8">
-        <v>36278.91849883424</v>
-      </c>
-      <c r="S8">
-        <v>0.7226333738663602</v>
-      </c>
-      <c r="T8">
-        <v>0.7226333738663602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>52.94781866666667</v>
-      </c>
-      <c r="H9">
-        <v>158.843456</v>
-      </c>
-      <c r="I9">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="J9">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.260213</v>
-      </c>
-      <c r="O9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P9">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q9">
-        <v>4.592570246236445</v>
-      </c>
-      <c r="R9">
-        <v>41.33313221612801</v>
-      </c>
-      <c r="S9">
-        <v>0.0008233073647651516</v>
-      </c>
-      <c r="T9">
-        <v>0.0008233073647651516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>52.94781866666667</v>
-      </c>
-      <c r="H10">
-        <v>158.843456</v>
-      </c>
-      <c r="I10">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="J10">
-        <v>0.7237128651036362</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.080969</v>
-      </c>
-      <c r="O10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P10">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q10">
-        <v>1.429043976540445</v>
-      </c>
-      <c r="R10">
-        <v>12.861395788864</v>
-      </c>
-      <c r="S10">
-        <v>0.0002561838725108644</v>
-      </c>
-      <c r="T10">
-        <v>0.0002561838725108644</v>
+        <v>0.4079538108969584</v>
       </c>
     </row>
   </sheetData>
